--- a/data/trans_camb/IP16B03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B03-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-49,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-34,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-49,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-34,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -923,17 +923,17 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-49,18</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-34,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -999,17 +999,17 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-49,18%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-34,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_camb/IP16B03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B03-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>-16,03</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,79; 17,41</t>
+          <t>-80,0; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,12 +677,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,88%</t>
+          <t>-16,03%</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 168,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 252,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,19 +735,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,3; 21,03</t>
+          <t>-80,0; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -777,12 +777,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,83</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 52,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,72</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 112,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 63,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 63,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -923,17 +923,17 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-49,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-34,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -999,17 +999,17 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-49,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-34,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,33</t>
+          <t>-100,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-19,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-52,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-50,46; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 0,0</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-17,14; 8,71</t>
-        </is>
-      </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 8,75</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,33%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>-52,78%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,46; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 0,0</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-17,67; 9,5</t>
-        </is>
-      </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 9,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-10,33</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-19,11</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 34,07</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 36,13</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-45,35; 0,0</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-75,0; 0,0</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-18,8; 8,69</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-19,19; 8,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8,19%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8,19%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-10,33%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-19,11%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-1,11%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 51,95</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 58,06</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-45,35; 0,0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-75,0; 0,0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-19,9; 9,46</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-20,11; 9,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16B03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B03-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-80,0; 0,0</t>
+          <t>-73,78; 0,0</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,0; 0,0</t>
+          <t>-73,78; 0,0</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,81</t>
+          <t>0,0; 47,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,72</t>
+          <t>0,0; 43,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,72</t>
+          <t>0,0; 43,17</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 112,62</t>
+          <t>0,0; 89,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,72</t>
+          <t>0,0; 75,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,72</t>
+          <t>0,0; 75,97</t>
         </is>
       </c>
     </row>
@@ -1263,17 +1263,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,07</t>
+          <t>0,0; 31,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,13</t>
+          <t>0,0; 31,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-45,35; 0,0</t>
+          <t>-41,59; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 8,69</t>
+          <t>-17,38; 8,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 8,6</t>
+          <t>-17,36; 8,73</t>
         </is>
       </c>
     </row>
@@ -1339,17 +1339,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,95</t>
+          <t>0,0; 45,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,06</t>
+          <t>0,0; 45,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-45,35; 0,0</t>
+          <t>-41,59; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 9,46</t>
+          <t>-18,04; 9,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 9,41</t>
+          <t>-17,56; 9,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B03-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-50,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-50,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-73,78; 0,0</t>
+          <t>-80,0; 0,0</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-50,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-50,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,78; 0,0</t>
+          <t>-80,0; 0,0</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>11,74</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 46,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,17</t>
+          <t>0,0; 36,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,17</t>
+          <t>0,0; 36,24</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>13,31%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 89,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,17 +886,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 87,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,97</t>
+          <t>0,0; 56,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,97</t>
+          <t>0,0; 56,84</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-100,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-10,33</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-19,11</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>7,57</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>7,57</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-10,33</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-19,11</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,08</t>
+          <t>-50,46; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,11</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 0,0</t>
+          <t>0,0; 30,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-75,0; 0,0</t>
+          <t>0,0; 37,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 8,75</t>
+          <t>-17,14; 8,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 8,73</t>
+          <t>-16,8; 8,75</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-10,33%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-19,11%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>8,19%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>8,19%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-10,33%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-19,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,1</t>
+          <t>-50,46; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,17</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 0,0</t>
+          <t>0,0; 43,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-75,0; 0,0</t>
+          <t>0,0; 61,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 9,55</t>
+          <t>-17,67; 9,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 9,53</t>
+          <t>-17,32; 9,55</t>
         </is>
       </c>
     </row>
